--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -127,21 +127,21 @@
     <t>safe</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -157,10 +157,10 @@
     <t>hand</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
   </si>
   <si>
     <t>hope</t>
@@ -1584,25 +1584,25 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.6869565217391305</v>
+        <v>0.6829268292682927</v>
       </c>
       <c r="L23">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>72</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1610,25 +1610,25 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6829268292682927</v>
+        <v>0.68</v>
       </c>
       <c r="L24">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1636,25 +1636,25 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.68</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1662,25 +1662,25 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6739130434782609</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="M26">
+        <v>73</v>
+      </c>
+      <c r="N26">
+        <v>0.93</v>
+      </c>
+      <c r="O26">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
         <v>33</v>
-      </c>
-      <c r="N26">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O26">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1688,25 +1688,25 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6732673267326733</v>
+        <v>0.6610878661087866</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="M27">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="N27">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1844,25 +1844,25 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.5775075987841946</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L33">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>201</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1870,13 +1870,13 @@
         <v>48</v>
       </c>
       <c r="K34">
-        <v>0.5714285714285714</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="10:17">
